--- a/src/test/resources/excel/template/both.xlsx
+++ b/src/test/resources/excel/template/both.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D72643E-0512-4117-819D-F45B730AA461}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{29451585-4DE0-4947-9A5A-A09A5E700D64}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="11790" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="11790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="単一シート出力テンプレート" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -41,7 +41,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C8" authorId="0" shapeId="0">
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -56,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="0" shapeId="0">
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -76,12 +76,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -97,7 +97,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="0" shapeId="0">
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -289,7 +289,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
   </numFmts>
@@ -345,12 +345,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="14"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -554,7 +553,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>157370</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>33132</xdr:rowOff>
+      <xdr:rowOff>182218</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -569,8 +568,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5781261" y="1374914"/>
-          <a:ext cx="2352261" cy="455544"/>
+          <a:off x="5781261" y="1432893"/>
+          <a:ext cx="2352261" cy="604629"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -600,6 +599,18 @@
             <a:rPr lang="ja-JP" altLang="en-US"/>
             <a:t>本シートは保護シートです。</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>保護パスワードは</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>cotos</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -684,68 +695,6 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>803413</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>91110</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>157370</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>33132</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3DB0121-3821-40EA-AB50-26B5C5332F27}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5784988" y="1434135"/>
-          <a:ext cx="2344807" cy="456372"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US"/>
-            <a:t>本シートは保護シートです。</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -818,6 +767,80 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>173935</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1424608</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>8282</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{299765D6-7DCB-490E-8CB0-8CD612E74400}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5549347" y="1515718"/>
+          <a:ext cx="2352261" cy="604629"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>本シートは保護シートです。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>保護パスワードは</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>cotos</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1111,11 +1134,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C2" sqref="C2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25"/>
@@ -1248,7 +1271,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="C404" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection password="C404" sheet="1" selectLockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="C2:E2"/>
   </mergeCells>
@@ -1261,11 +1284,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C2" sqref="C2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25"/>

--- a/src/test/resources/excel/template/both.xlsx
+++ b/src/test/resources/excel/template/both.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{29451585-4DE0-4947-9A5A-A09A5E700D64}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFCF366-4BC4-4AF9-BC48-1B0C0B1A2428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="11790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="単一シート出力テンプレート" sheetId="1" r:id="rId1"/>
@@ -13,9 +13,21 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">単一シート出力テンプレート!$A$1:$G$24</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">複数シート出力テンプレート!$A$1:$G$24</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -67,7 +79,7 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>jx:each(items="app.itemList" var="item" lastCell="F12")</t>
+          <t>jx:each(items="inputEntity.app.itemList" var="item" lastCell="F12")</t>
         </r>
       </text>
     </comment>
@@ -93,7 +105,7 @@
             <charset val="128"/>
           </rPr>
           <t>jx:area(lastCell="G24")
-jx:each(items="appList" var="app" lastCell="G24" multisheet="appTitleList")</t>
+jx:each(items="inputEntity.appList" var="app" lastCell="G24" multisheet="app.title")</t>
         </r>
       </text>
     </comment>
@@ -117,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t>テキスト</t>
     <phoneticPr fontId="1"/>
@@ -283,6 +295,25 @@
   </si>
   <si>
     <t>${item.code}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${inputEntity.app.title} 申込書</t>
+    <rPh sb="25" eb="28">
+      <t>モウシコミショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${inputEntity.app.text}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${inputEntity.app.number}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${inputEntity.app.text}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1137,24 +1168,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E2"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.25"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="15.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.9140625" style="1"/>
+    <col min="2" max="2" width="15.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.4140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
-    <col min="5" max="6" width="17.44140625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="5" max="6" width="17.4140625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.9140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6"/>
     <row r="2" spans="1:6" ht="24.75" customHeight="1">
       <c r="C2" s="17" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
@@ -1164,14 +1193,14 @@
         <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="5" t="str">
         <f>C4</f>
-        <v>${app.text}</v>
+        <v>${inputEntity.app.text}</v>
       </c>
       <c r="F4" s="6"/>
     </row>
@@ -1180,7 +1209,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
@@ -1196,7 +1225,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1204,7 +1233,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1235,7 +1264,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="21" thickBot="1">
+    <row r="12" spans="1:6" ht="18.5" thickBot="1">
       <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
@@ -1253,7 +1282,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="21" thickBot="1">
+    <row r="13" spans="1:6" ht="18.5" thickBot="1">
       <c r="C13" s="11" t="s">
         <v>6</v>
       </c>
@@ -1271,7 +1300,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="C404" sheet="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="sitxkaldcb0ozSflusg3nkd7QELmBFRweiwaAx39HZ/B/jFnIZETfSJ/Z6fsIjSPv3Le05Vuhmk2dIf8W1BgpQ==" saltValue="oUD+BbQCsPQznnNTwv/sdA==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="C2:E2"/>
   </mergeCells>
@@ -1287,18 +1316,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E2"/>
-    </sheetView>
+    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.25"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="15.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.9140625" style="1"/>
+    <col min="2" max="2" width="15.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.4140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
-    <col min="5" max="6" width="17.44140625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="5" max="6" width="17.4140625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.9140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6"/>
@@ -1385,7 +1412,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="21" thickBot="1">
+    <row r="12" spans="1:6" ht="18.5" thickBot="1">
       <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
@@ -1403,7 +1430,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="21" thickBot="1">
+    <row r="13" spans="1:6" ht="18.5" thickBot="1">
       <c r="C13" s="11" t="s">
         <v>6</v>
       </c>
